--- a/Riskvalve/wwwroot/Uploads/Downloads/AssetTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/AssetTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr backupFile="1"/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="17980" tabRatio="861"/>
+    <workbookView windowWidth="21440" windowHeight="18660" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Valve" sheetId="14" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="219">
   <si>
     <t>Asset ID</t>
   </si>
@@ -127,214 +127,178 @@
     <t>Status</t>
   </si>
   <si>
-    <t>WIB-PSV-V05A-4</t>
-  </si>
-  <si>
-    <t>Pressure Safety Valve V05A</t>
+    <t>Manual Overide</t>
+  </si>
+  <si>
+    <t>Bussiness Unit Area</t>
+  </si>
+  <si>
+    <t>Toxic Fluid</t>
+  </si>
+  <si>
+    <t>Yes/No/Unknown</t>
+  </si>
+  <si>
+    <t>Leakage Potential</t>
+  </si>
+  <si>
+    <t>Loss Type</t>
+  </si>
+  <si>
+    <t>Fluid toxic or flammable</t>
+  </si>
+  <si>
+    <t>Cost of repair as % of new valve cost</t>
+  </si>
+  <si>
+    <t>Actual Condition</t>
+  </si>
+  <si>
+    <t>Inspection Effectiveness</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Air Release Valve</t>
+  </si>
+  <si>
+    <t>SBU</t>
+  </si>
+  <si>
+    <t>AIDA-A</t>
+  </si>
+  <si>
+    <t>H2S</t>
+  </si>
+  <si>
+    <t>Liquid</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Atmosphere</t>
+  </si>
+  <si>
+    <t>Increased degradation</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Manual Valve</t>
+  </si>
+  <si>
+    <t>In-Service</t>
+  </si>
+  <si>
+    <t>Highly Effective</t>
+  </si>
+  <si>
+    <t>Pneumatic</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Blowdown Valve</t>
+  </si>
+  <si>
+    <t>CBU</t>
+  </si>
+  <si>
+    <t>ARYANI-A</t>
+  </si>
+  <si>
+    <t>HFAcid</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Downstream cascade effect significant</t>
+  </si>
+  <si>
+    <t>As expected</t>
+  </si>
+  <si>
+    <t>Poor</t>
+  </si>
+  <si>
+    <t>Auto On-Off Valve</t>
+  </si>
+  <si>
+    <t>Waiting for Refurbishment</t>
+  </si>
+  <si>
+    <t>Ussualy Effective</t>
+  </si>
+  <si>
+    <t>Hydraulic</t>
+  </si>
+  <si>
+    <t>Check Valve</t>
   </si>
   <si>
     <t>NBU</t>
   </si>
   <si>
-    <t>AIDA-A</t>
-  </si>
-  <si>
-    <t>PL-518-A-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">COTP Line </t>
-  </si>
-  <si>
-    <t>CIC-11012</t>
-  </si>
-  <si>
-    <t>Air Release Valve</t>
-  </si>
-  <si>
-    <t>GLT</t>
-  </si>
-  <si>
-    <t>A105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trunnion </t>
-  </si>
-  <si>
-    <t>RF</t>
-  </si>
-  <si>
-    <t>Missing Name Plate</t>
+    <t>CHESSY-A</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Downstream  cascading effect not significant</t>
+  </si>
+  <si>
+    <t>Decreased degradation</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Control Valve</t>
+  </si>
+  <si>
+    <t>Spare</t>
+  </si>
+  <si>
+    <t>Fair Effective</t>
+  </si>
+  <si>
+    <t>Manual</t>
+  </si>
+  <si>
+    <t>Deluge Valve</t>
+  </si>
+  <si>
+    <t>PABELOKAN</t>
+  </si>
+  <si>
+    <t>INDRI-A</t>
+  </si>
+  <si>
+    <t>HCL</t>
   </si>
   <si>
     <t>PSV/PRV</t>
   </si>
   <si>
-    <t>Waste Gas</t>
-  </si>
-  <si>
-    <t>Gas</t>
-  </si>
-  <si>
-    <t>Yes</t>
+    <t>Ineffective</t>
   </si>
   <si>
     <t>N/A</t>
-  </si>
-  <si>
-    <t>In-service</t>
-  </si>
-  <si>
-    <t>Manual Overide</t>
-  </si>
-  <si>
-    <t>Bussiness Unit Area</t>
-  </si>
-  <si>
-    <t>Toxic Fluid</t>
-  </si>
-  <si>
-    <t>Yes/No/Unknown</t>
-  </si>
-  <si>
-    <t>Leakage Potential</t>
-  </si>
-  <si>
-    <t>Loss Type</t>
-  </si>
-  <si>
-    <t>Fluid toxic or flammable</t>
-  </si>
-  <si>
-    <t>Cost of repair as % of new valve cost</t>
-  </si>
-  <si>
-    <t>Actual Condition</t>
-  </si>
-  <si>
-    <t>Inspection Effectiveness</t>
-  </si>
-  <si>
-    <t>SBU</t>
-  </si>
-  <si>
-    <t>H2S</t>
-  </si>
-  <si>
-    <t>Liquid</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Atmosphere</t>
-  </si>
-  <si>
-    <t>Increased degradation</t>
-  </si>
-  <si>
-    <t>Good</t>
-  </si>
-  <si>
-    <t>Manual Valve</t>
-  </si>
-  <si>
-    <t>In-Service</t>
-  </si>
-  <si>
-    <t>Highly Effective</t>
-  </si>
-  <si>
-    <t>Pneumatic</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>Blowdown Valve</t>
-  </si>
-  <si>
-    <t>CBU</t>
-  </si>
-  <si>
-    <t>ARYANI-A</t>
-  </si>
-  <si>
-    <t>HFAcid</t>
-  </si>
-  <si>
-    <t>Medium</t>
-  </si>
-  <si>
-    <t>Downstream cascade effect significant</t>
-  </si>
-  <si>
-    <t>As expected</t>
-  </si>
-  <si>
-    <t>Poor</t>
-  </si>
-  <si>
-    <t>Auto On-Off Valve</t>
-  </si>
-  <si>
-    <t>Waiting for Refurbishment</t>
-  </si>
-  <si>
-    <t>Ussualy Effective</t>
-  </si>
-  <si>
-    <t>Hydraulic</t>
-  </si>
-  <si>
-    <t>Check Valve</t>
-  </si>
-  <si>
-    <t>CHESSY-A</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>Downstream  cascading effect not significant</t>
-  </si>
-  <si>
-    <t>Decreased degradation</t>
-  </si>
-  <si>
-    <t>Bad</t>
-  </si>
-  <si>
-    <t>Control Valve</t>
-  </si>
-  <si>
-    <t>Spare</t>
-  </si>
-  <si>
-    <t>Fair Effective</t>
-  </si>
-  <si>
-    <t>Manual</t>
-  </si>
-  <si>
-    <t>Deluge Valve</t>
-  </si>
-  <si>
-    <t>PABELOKAN</t>
-  </si>
-  <si>
-    <t>INDRI-A</t>
-  </si>
-  <si>
-    <t>HCL</t>
-  </si>
-  <si>
-    <t>Ineffective</t>
   </si>
   <si>
     <t>Emergency Shutdown Valve</t>
@@ -726,12 +690,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -772,13 +736,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -788,22 +745,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -817,10 +759,64 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -832,21 +828,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -862,9 +843,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -885,20 +872,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -907,27 +883,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="36">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -960,25 +917,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,13 +1007,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,133 +1061,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1224,11 +1169,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1248,41 +1210,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1297,158 +1224,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1476,20 +1421,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="52">
@@ -1848,13 +1784,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AE3"/>
+  <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A3" sqref="$A3:$XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="16.4553571428571" style="8" customWidth="1"/>
     <col min="2" max="2" width="21.5446428571429" style="8" customWidth="1"/>
@@ -1893,35 +1829,35 @@
       <c r="B1" s="10"/>
       <c r="C1" s="10"/>
       <c r="D1" s="11"/>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="13"/>
+      <c r="U1" s="13"/>
+      <c r="V1" s="13"/>
+      <c r="W1" s="13"/>
+      <c r="X1" s="13"/>
+      <c r="Y1" s="13"/>
+      <c r="Z1" s="13"/>
+      <c r="AA1" s="13"/>
+      <c r="AB1" s="13"/>
+      <c r="AC1" s="13"/>
+      <c r="AD1" s="13"/>
+      <c r="AE1" s="13"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="46" customHeight="1" spans="1:31">
       <c r="A2" s="12" t="s">
@@ -1936,181 +1872,86 @@
       <c r="D2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="P2" s="15" t="s">
+      <c r="P2" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="15" t="s">
+      <c r="Q2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="R2" s="15" t="s">
+      <c r="R2" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="S2" s="15" t="s">
+      <c r="S2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="T2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="U2" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="V2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="W2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="X2" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Y2" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="Z2" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AA2" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AB2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AC2" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="AD2" s="15" t="s">
+      <c r="AD2" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="AE2" s="15" t="s">
+      <c r="AE2" s="14" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="3" ht="20" customHeight="1" spans="1:31">
-      <c r="A3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="16">
-        <v>39888</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="K3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="L3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="M3" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="O3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="P3" s="13">
-        <v>10</v>
-      </c>
-      <c r="Q3" s="13">
-        <v>150</v>
-      </c>
-      <c r="R3" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="S3" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="T3" s="17">
-        <v>100</v>
-      </c>
-      <c r="U3" s="17">
-        <v>60</v>
-      </c>
-      <c r="V3" s="17">
-        <v>50</v>
-      </c>
-      <c r="W3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="X3" s="17">
-        <v>15000</v>
-      </c>
-      <c r="Y3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AB3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC3" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="AD3" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="AE3" s="17" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -2118,39 +1959,6 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:AE1"/>
   </mergeCells>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE3">
-      <formula1>Lookup!$O$3:$O$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y3">
-      <formula1>Lookup!$Q$3:$Q$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3">
-      <formula1>Lookup!$J$3:$J$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3">
-      <formula1>Lookup!$A$3:$A$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3">
-      <formula1>Lookup!$F$3:$F$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O3">
-      <formula1>Lookup!$M$3:$M$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3">
-      <formula1>Lookup!$D$3:$D$102</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
-      <formula1>Lookup!$B$3:$B$26</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q3">
-      <formula1>Lookup!$N$3:$N$10</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3">
-      <formula1>Lookup!$C$3:$C$6</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
@@ -2180,40 +1988,40 @@
   <sheetData>
     <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="M2" s="2" t="s">
         <v>16</v>
@@ -2225,7 +2033,7 @@
         <v>32</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="Q2" s="2" t="s">
         <v>26</v>
@@ -2233,190 +2041,190 @@
     </row>
     <row r="3" spans="1:17">
       <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
       <c r="I3" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="J3" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="M3" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="N3" s="5">
         <v>150</v>
       </c>
       <c r="O3" t="s">
-        <v>70</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s">
-        <v>71</v>
+        <v>55</v>
       </c>
       <c r="Q3" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:17">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>58</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="H4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="I4" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="K4" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
       <c r="M4" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N4" s="5">
         <v>300</v>
       </c>
       <c r="O4" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="P4" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="Q4" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5" spans="2:17">
       <c r="B5" s="3" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="G5" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="K5" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="L5" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="M5" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="N5" s="5">
         <v>400</v>
       </c>
       <c r="O5" t="s">
-        <v>95</v>
+        <v>81</v>
       </c>
       <c r="P5" t="s">
-        <v>96</v>
+        <v>82</v>
       </c>
       <c r="Q5" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="2:17">
       <c r="B6" s="3" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="E6" t="s">
-        <v>101</v>
+        <v>87</v>
       </c>
       <c r="M6" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="N6" s="5">
         <v>600</v>
       </c>
       <c r="P6" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="Q6" t="s">
-        <v>50</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="2:14">
       <c r="B7" s="3" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="N7" s="5">
         <v>900</v>
@@ -2424,14 +2232,14 @@
     </row>
     <row r="8" spans="2:14">
       <c r="B8" s="3" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="N8" s="5">
         <v>1500</v>
@@ -2439,14 +2247,14 @@
     </row>
     <row r="9" ht="24" spans="2:14">
       <c r="B9" s="3" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="N9" s="5">
         <v>2500</v>
@@ -2454,14 +2262,14 @@
     </row>
     <row r="10" spans="2:14">
       <c r="B10" s="3" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="N10" s="5">
         <v>4500</v>
@@ -2470,540 +2278,540 @@
     <row r="11" spans="1:5">
       <c r="A11" s="4"/>
       <c r="B11" s="3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="E11" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="2:5">
       <c r="B12" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="E12" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="2:5">
       <c r="B13" s="3" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" s="3" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" s="3" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E15" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" s="3" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E16" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="E18" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="B20" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="D20" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D21" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:4">
       <c r="B22" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="D22" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="2:4">
       <c r="B23" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D23" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="D24" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="B25" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D25" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D26" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
     </row>
     <row r="27" spans="4:4">
       <c r="D27" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="28" spans="4:4">
       <c r="D28" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="29" spans="4:4">
       <c r="D29" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="4:4">
       <c r="D31" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="4:4">
       <c r="D32" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
     </row>
     <row r="33" spans="4:4">
       <c r="D33" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="4:4">
       <c r="D34" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
     </row>
     <row r="35" spans="4:4">
       <c r="D35" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="4:4">
       <c r="D36" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="4:4">
       <c r="D37" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="38" spans="4:4">
       <c r="D38" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="4:4">
       <c r="D39" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="4:4">
       <c r="D40" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="4:4">
       <c r="D41" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="4:4">
       <c r="D42" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
     </row>
     <row r="43" spans="4:4">
       <c r="D43" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="44" spans="4:4">
       <c r="D44" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="4:4">
       <c r="D45" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="46" spans="4:4">
       <c r="D46" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="4:4">
       <c r="D47" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="48" spans="4:4">
       <c r="D48" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="4:4">
       <c r="D51" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="4:4">
       <c r="D54" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="55" spans="4:4">
       <c r="D55" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
     </row>
     <row r="56" spans="4:4">
       <c r="D56" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="4:4">
       <c r="D57" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="4:4">
       <c r="D58" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="59" spans="4:4">
       <c r="D59" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
     </row>
     <row r="60" spans="4:4">
       <c r="D60" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="61" spans="4:4">
       <c r="D61" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
     </row>
     <row r="62" spans="4:4">
       <c r="D62" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="63" spans="4:4">
       <c r="D63" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="4:4">
       <c r="D64" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65" spans="4:4">
       <c r="D65" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
     </row>
     <row r="66" spans="4:4">
       <c r="D66" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
     </row>
     <row r="67" spans="4:4">
       <c r="D67" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="4:4">
       <c r="D68" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
     </row>
     <row r="69" spans="4:4">
       <c r="D69" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="70" spans="4:4">
       <c r="D70" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="4:4">
       <c r="D71" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
     </row>
     <row r="72" spans="4:4">
       <c r="D72" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="73" spans="4:4">
       <c r="D73" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
     </row>
     <row r="74" spans="4:4">
       <c r="D74" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
     </row>
     <row r="75" spans="4:4">
       <c r="D75" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
     </row>
     <row r="76" spans="4:4">
       <c r="D76" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
     </row>
     <row r="77" spans="4:4">
       <c r="D77" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="78" spans="4:4">
       <c r="D78" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
     </row>
     <row r="79" spans="4:4">
       <c r="D79" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="80" spans="4:4">
       <c r="D80" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="81" spans="4:4">
       <c r="D81" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
     </row>
     <row r="82" spans="4:4">
       <c r="D82" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="83" spans="4:4">
       <c r="D83" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
     </row>
     <row r="84" spans="4:4">
       <c r="D84" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
     </row>
     <row r="85" spans="4:4">
       <c r="D85" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="86" spans="4:4">
       <c r="D86" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
     </row>
     <row r="87" spans="4:4">
       <c r="D87" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
     </row>
     <row r="88" spans="4:4">
       <c r="D88" t="s">
-        <v>216</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="4:4">
       <c r="D89" t="s">
-        <v>217</v>
+        <v>205</v>
       </c>
     </row>
     <row r="90" spans="4:4">
       <c r="D90" t="s">
-        <v>218</v>
+        <v>206</v>
       </c>
     </row>
     <row r="91" spans="4:4">
       <c r="D91" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="4:4">
       <c r="D92" t="s">
-        <v>220</v>
+        <v>208</v>
       </c>
     </row>
     <row r="93" spans="4:4">
       <c r="D93" t="s">
-        <v>221</v>
+        <v>209</v>
       </c>
     </row>
     <row r="94" spans="4:4">
       <c r="D94" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
     </row>
     <row r="95" spans="4:4">
       <c r="D95" t="s">
-        <v>223</v>
+        <v>211</v>
       </c>
     </row>
     <row r="96" spans="4:4">
       <c r="D96" t="s">
-        <v>224</v>
+        <v>212</v>
       </c>
     </row>
     <row r="97" spans="4:4">
       <c r="D97" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
     </row>
     <row r="98" spans="4:4">
       <c r="D98" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="99" spans="4:4">
       <c r="D99" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
     </row>
     <row r="100" spans="4:4">
       <c r="D100" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
     </row>
     <row r="101" spans="4:4">
       <c r="D101" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
     </row>
     <row r="102" spans="4:4">
       <c r="D102" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Riskvalve/wwwroot/Uploads/Downloads/AssetTemplate.xlsx
+++ b/Riskvalve/wwwroot/Uploads/Downloads/AssetTemplate.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr backupFile="1"/>
   <bookViews>
-    <workbookView windowWidth="21440" windowHeight="18660" tabRatio="861"/>
+    <workbookView windowWidth="30300" windowHeight="17980" tabRatio="861"/>
   </bookViews>
   <sheets>
     <sheet name="Asset Valve" sheetId="14" r:id="rId1"/>
@@ -690,9 +690,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="25">
@@ -736,9 +736,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -746,6 +761,102 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -759,85 +870,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="1"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,40 +883,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -911,175 +911,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1145,21 +1145,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1180,6 +1165,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1210,30 +1219,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1242,148 +1227,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1787,7 +1787,7 @@
   <dimension ref="A1:AE2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="$A3:$XFD3"/>
+      <selection activeCell="AE3" sqref="A3:AE3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.8" outlineLevelRow="1"/>
@@ -1959,6 +1959,20 @@
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:AE1"/>
   </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W3">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S3">
+      <formula1>"Liquid,Gas"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD3">
+      <formula1>"Yes,No,Normally Open or Close"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3">
+      <formula1>"Air Release Valve,Blowdown Valve,Check Valve,Deluge Valve,Level Control Valve"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter/>
